--- a/resources/code-review-result.xlsx
+++ b/resources/code-review-result.xlsx
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>确认结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,13 +84,17 @@
   </si>
   <si>
     <t>问题分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,17 +212,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -531,7 +531,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,76 +552,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15"/>
@@ -639,13 +639,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -659,17 +659,17 @@
       <c r="J10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="N10" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
